--- a/GameDesign/ExcelData/DialogueGroup_Data.xlsx
+++ b/GameDesign/ExcelData/DialogueGroup_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B73C33D-1E6A-49C8-9F68-70D001CE368E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E01BF4-496D-41D0-ADC4-6909C2DA3988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11556" yWindow="708" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,11 +38,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[103,101]</t>
+    <t>dialogueIds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dialogueIds</t>
+    <t>[101,102]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,7 +386,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -420,7 +420,7 @@
         <v>1001</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -428,11 +428,12 @@
         <v>1002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameDesign/ExcelData/DialogueGroup_Data.xlsx
+++ b/GameDesign/ExcelData/DialogueGroup_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E01BF4-496D-41D0-ADC4-6909C2DA3988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF69E25D-51F4-4ACC-A36B-4219545C182D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5892" yWindow="1836" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,7 +386,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/DialogueGroup_Data.xlsx
+++ b/GameDesign/ExcelData/DialogueGroup_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF69E25D-51F4-4ACC-A36B-4219545C182D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E06F93E-2B98-40EC-B34F-9650B65BCB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5892" yWindow="1836" windowWidth="17628" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Id</t>
   </si>
@@ -43,6 +43,22 @@
   </si>
   <si>
     <t>[101,102]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[203,204,205]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[206]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[207]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[202,203,204,205,207]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -431,6 +447,38 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GameDesign/ExcelData/DialogueGroup_Data.xlsx
+++ b/GameDesign/ExcelData/DialogueGroup_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E06F93E-2B98-40EC-B34F-9650B65BCB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ABFFE7-A46F-4795-B669-80B0A9076E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[202,203,204,205,207]</t>
+    <t>[201,202,203,204]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +402,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/DialogueGroup_Data.xlsx
+++ b/GameDesign/ExcelData/DialogueGroup_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ABFFE7-A46F-4795-B669-80B0A9076E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8951E61-EE7E-418F-8A93-DC9EDEC014FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[201,202,203,204]</t>
+    <t>[201,202,203,204,205]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +402,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E8" sqref="E8:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/DialogueGroup_Data.xlsx
+++ b/GameDesign/ExcelData/DialogueGroup_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8951E61-EE7E-418F-8A93-DC9EDEC014FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B73F31-FE80-4327-BAB9-33A6D74AB60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="1056" windowWidth="22800" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F11"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/GameDesign/ExcelData/DialogueGroup_Data.xlsx
+++ b/GameDesign/ExcelData/DialogueGroup_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\University\ucsc\GAME 271\project-Nameless Hill\NamelessHill_Temp\Nameless_Temp\GameDesign\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UCSC\GPM\game 271\Project\Nameless_Temp\GameDesign\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B73F31-FE80-4327-BAB9-33A6D74AB60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F91AA07-C0ED-4981-BC7E-AC6A9459F33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="1056" windowWidth="22800" windowHeight="7428" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[201,202,203,204,205]</t>
+    <t>[201,202,203,204,205,206]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +402,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F8" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
